--- a/processed_data/time_sale_all.xlsx
+++ b/processed_data/time_sale_all.xlsx
@@ -4999,7 +4999,7 @@
         <v>25.30100000000001</v>
       </c>
       <c r="G198" t="n">
-        <v>0</v>
+        <v>12.4735</v>
       </c>
     </row>
     <row r="199">
@@ -5651,22 +5651,22 @@
         <v>44238</v>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>372.0869999999999</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>414.3936666666666</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>214.528</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>365.597</v>
       </c>
       <c r="F227" t="n">
-        <v>0</v>
+        <v>118.9563333333333</v>
       </c>
       <c r="G227" t="n">
-        <v>0</v>
+        <v>88.94300000000001</v>
       </c>
     </row>
     <row r="228">
@@ -5674,22 +5674,22 @@
         <v>44239</v>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>238.2859999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>328.9393333333333</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>132.264</v>
       </c>
       <c r="E228" t="n">
-        <v>0</v>
+        <v>220.058</v>
       </c>
       <c r="F228" t="n">
-        <v>0</v>
+        <v>70.85766666666666</v>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>58.955</v>
       </c>
     </row>
     <row r="229">
@@ -13793,22 +13793,22 @@
         <v>44592</v>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>228.0525</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>146.0125</v>
       </c>
       <c r="D581" t="n">
-        <v>0</v>
+        <v>136.464</v>
       </c>
       <c r="E581" t="n">
-        <v>0</v>
+        <v>99.89749999999999</v>
       </c>
       <c r="F581" t="n">
-        <v>0</v>
+        <v>58.048</v>
       </c>
       <c r="G581" t="n">
-        <v>0</v>
+        <v>53.44400000000001</v>
       </c>
     </row>
     <row r="582">
@@ -15116,7 +15116,7 @@
         <v>26.983</v>
       </c>
       <c r="F638" t="n">
-        <v>0</v>
+        <v>16.1945</v>
       </c>
       <c r="G638" t="n">
         <v>13.184</v>
@@ -18960,7 +18960,7 @@
         <v>71.58799999999999</v>
       </c>
       <c r="G805" t="n">
-        <v>0</v>
+        <v>7.077176470588237</v>
       </c>
     </row>
     <row r="806">
@@ -18983,7 +18983,7 @@
         <v>47.12599999999999</v>
       </c>
       <c r="G806" t="n">
-        <v>0</v>
+        <v>7.227352941176472</v>
       </c>
     </row>
     <row r="807">
@@ -19006,7 +19006,7 @@
         <v>41.84099999999999</v>
       </c>
       <c r="G807" t="n">
-        <v>0</v>
+        <v>7.377529411764707</v>
       </c>
     </row>
     <row r="808">
@@ -19029,7 +19029,7 @@
         <v>27.431</v>
       </c>
       <c r="G808" t="n">
-        <v>0</v>
+        <v>7.527705882352942</v>
       </c>
     </row>
     <row r="809">
@@ -19052,7 +19052,7 @@
         <v>41.283</v>
       </c>
       <c r="G809" t="n">
-        <v>0</v>
+        <v>7.677882352941177</v>
       </c>
     </row>
     <row r="810">
@@ -19075,7 +19075,7 @@
         <v>69.61300000000001</v>
       </c>
       <c r="G810" t="n">
-        <v>0</v>
+        <v>7.828058823529412</v>
       </c>
     </row>
     <row r="811">
@@ -19098,7 +19098,7 @@
         <v>57.71599999999998</v>
       </c>
       <c r="G811" t="n">
-        <v>0</v>
+        <v>7.978235294117647</v>
       </c>
     </row>
     <row r="812">
@@ -19121,7 +19121,7 @@
         <v>38.815</v>
       </c>
       <c r="G812" t="n">
-        <v>0</v>
+        <v>8.128411764705882</v>
       </c>
     </row>
     <row r="813">
@@ -19144,7 +19144,7 @@
         <v>42.297</v>
       </c>
       <c r="G813" t="n">
-        <v>0</v>
+        <v>8.278588235294118</v>
       </c>
     </row>
     <row r="814">
@@ -19167,7 +19167,7 @@
         <v>32.068</v>
       </c>
       <c r="G814" t="n">
-        <v>0</v>
+        <v>8.428764705882353</v>
       </c>
     </row>
     <row r="815">
@@ -19190,7 +19190,7 @@
         <v>50.38800000000001</v>
       </c>
       <c r="G815" t="n">
-        <v>0</v>
+        <v>8.578941176470588</v>
       </c>
     </row>
     <row r="816">
@@ -19213,7 +19213,7 @@
         <v>64.26000000000002</v>
       </c>
       <c r="G816" t="n">
-        <v>0</v>
+        <v>8.729117647058823</v>
       </c>
     </row>
     <row r="817">
@@ -19236,7 +19236,7 @@
         <v>75.74300000000001</v>
       </c>
       <c r="G817" t="n">
-        <v>0</v>
+        <v>8.879294117647058</v>
       </c>
     </row>
     <row r="818">
@@ -19259,7 +19259,7 @@
         <v>55.32400000000001</v>
       </c>
       <c r="G818" t="n">
-        <v>0</v>
+        <v>9.029470588235293</v>
       </c>
     </row>
     <row r="819">
@@ -19282,7 +19282,7 @@
         <v>30.76</v>
       </c>
       <c r="G819" t="n">
-        <v>0</v>
+        <v>9.179647058823528</v>
       </c>
     </row>
     <row r="820">
@@ -19305,7 +19305,7 @@
         <v>29.389</v>
       </c>
       <c r="G820" t="n">
-        <v>0</v>
+        <v>9.329823529411764</v>
       </c>
     </row>
     <row r="821">
@@ -19328,7 +19328,7 @@
         <v>32.62499999999999</v>
       </c>
       <c r="G821" t="n">
-        <v>0</v>
+        <v>9.479999999999999</v>
       </c>
     </row>
     <row r="822">
@@ -19351,7 +19351,7 @@
         <v>31.877</v>
       </c>
       <c r="G822" t="n">
-        <v>0</v>
+        <v>9.630176470588234</v>
       </c>
     </row>
     <row r="823">
@@ -19374,7 +19374,7 @@
         <v>53.33</v>
       </c>
       <c r="G823" t="n">
-        <v>0</v>
+        <v>9.780352941176469</v>
       </c>
     </row>
     <row r="824">
@@ -19397,7 +19397,7 @@
         <v>76.79900000000001</v>
       </c>
       <c r="G824" t="n">
-        <v>0</v>
+        <v>9.930529411764704</v>
       </c>
     </row>
     <row r="825">
@@ -19420,7 +19420,7 @@
         <v>61.86899999999999</v>
       </c>
       <c r="G825" t="n">
-        <v>0</v>
+        <v>10.08070588235294</v>
       </c>
     </row>
     <row r="826">
@@ -19443,7 +19443,7 @@
         <v>59.16100000000002</v>
       </c>
       <c r="G826" t="n">
-        <v>0</v>
+        <v>10.23088235294117</v>
       </c>
     </row>
     <row r="827">
@@ -19466,7 +19466,7 @@
         <v>49.86899999999999</v>
       </c>
       <c r="G827" t="n">
-        <v>0</v>
+        <v>10.38105882352941</v>
       </c>
     </row>
     <row r="828">
@@ -19489,7 +19489,7 @@
         <v>40.76900000000001</v>
       </c>
       <c r="G828" t="n">
-        <v>0</v>
+        <v>10.53123529411764</v>
       </c>
     </row>
     <row r="829">
@@ -19512,7 +19512,7 @@
         <v>71.58799999999999</v>
       </c>
       <c r="G829" t="n">
-        <v>0</v>
+        <v>10.68141176470588</v>
       </c>
     </row>
     <row r="830">
@@ -19535,7 +19535,7 @@
         <v>87.40300000000002</v>
       </c>
       <c r="G830" t="n">
-        <v>0</v>
+        <v>10.83158823529411</v>
       </c>
     </row>
     <row r="831">
@@ -19558,7 +19558,7 @@
         <v>37.81400000000001</v>
       </c>
       <c r="G831" t="n">
-        <v>0</v>
+        <v>10.98176470588235</v>
       </c>
     </row>
     <row r="832">
@@ -19581,7 +19581,7 @@
         <v>53.058</v>
       </c>
       <c r="G832" t="n">
-        <v>0</v>
+        <v>11.13194117647059</v>
       </c>
     </row>
     <row r="833">
@@ -19604,7 +19604,7 @@
         <v>47.04600000000001</v>
       </c>
       <c r="G833" t="n">
-        <v>0</v>
+        <v>11.28211764705882</v>
       </c>
     </row>
     <row r="834">
@@ -19627,7 +19627,7 @@
         <v>29.66</v>
       </c>
       <c r="G834" t="n">
-        <v>0</v>
+        <v>11.43229411764706</v>
       </c>
     </row>
     <row r="835">
@@ -19650,7 +19650,7 @@
         <v>29.309</v>
       </c>
       <c r="G835" t="n">
-        <v>0</v>
+        <v>11.58247058823529</v>
       </c>
     </row>
     <row r="836">
@@ -19673,7 +19673,7 @@
         <v>30.605</v>
       </c>
       <c r="G836" t="n">
-        <v>0</v>
+        <v>11.73264705882353</v>
       </c>
     </row>
     <row r="837">
@@ -19696,7 +19696,7 @@
         <v>11.595</v>
       </c>
       <c r="G837" t="n">
-        <v>0</v>
+        <v>11.88282352941176</v>
       </c>
     </row>
     <row r="838">
@@ -20118,22 +20118,22 @@
         <v>44867</v>
       </c>
       <c r="B856" t="n">
-        <v>0</v>
+        <v>115.606</v>
       </c>
       <c r="C856" t="n">
-        <v>0</v>
+        <v>90.37950000000001</v>
       </c>
       <c r="D856" t="n">
-        <v>0</v>
+        <v>21.7055</v>
       </c>
       <c r="E856" t="n">
-        <v>0</v>
+        <v>108.757</v>
       </c>
       <c r="F856" t="n">
-        <v>0</v>
+        <v>51.702</v>
       </c>
       <c r="G856" t="n">
-        <v>0</v>
+        <v>3.6585</v>
       </c>
     </row>
     <row r="857">
@@ -20164,22 +20164,22 @@
         <v>44869</v>
       </c>
       <c r="B858" t="n">
-        <v>0</v>
+        <v>143.8055</v>
       </c>
       <c r="C858" t="n">
-        <v>0</v>
+        <v>137.197</v>
       </c>
       <c r="D858" t="n">
-        <v>0</v>
+        <v>44.07100000000001</v>
       </c>
       <c r="E858" t="n">
-        <v>0</v>
+        <v>148.849</v>
       </c>
       <c r="F858" t="n">
-        <v>0</v>
+        <v>68.669</v>
       </c>
       <c r="G858" t="n">
-        <v>0</v>
+        <v>6.914</v>
       </c>
     </row>
     <row r="859">
@@ -20762,22 +20762,22 @@
         <v>44895</v>
       </c>
       <c r="B884" t="n">
-        <v>0</v>
+        <v>15.5336</v>
       </c>
       <c r="C884" t="n">
-        <v>0</v>
+        <v>44.9182</v>
       </c>
       <c r="D884" t="n">
-        <v>0</v>
+        <v>10.9868</v>
       </c>
       <c r="E884" t="n">
-        <v>0</v>
+        <v>12.6264</v>
       </c>
       <c r="F884" t="n">
-        <v>0</v>
+        <v>11.0436</v>
       </c>
       <c r="G884" t="n">
-        <v>0</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="885">
@@ -20785,22 +20785,22 @@
         <v>44896</v>
       </c>
       <c r="B885" t="n">
-        <v>0</v>
+        <v>25.0012</v>
       </c>
       <c r="C885" t="n">
-        <v>0</v>
+        <v>58.5384</v>
       </c>
       <c r="D885" t="n">
-        <v>0</v>
+        <v>12.7796</v>
       </c>
       <c r="E885" t="n">
-        <v>0</v>
+        <v>16.9698</v>
       </c>
       <c r="F885" t="n">
-        <v>0</v>
+        <v>14.4632</v>
       </c>
       <c r="G885" t="n">
-        <v>0</v>
+        <v>1.534</v>
       </c>
     </row>
     <row r="886">
@@ -20808,22 +20808,22 @@
         <v>44897</v>
       </c>
       <c r="B886" t="n">
-        <v>0</v>
+        <v>34.4688</v>
       </c>
       <c r="C886" t="n">
-        <v>0</v>
+        <v>72.15859999999999</v>
       </c>
       <c r="D886" t="n">
-        <v>0</v>
+        <v>14.5724</v>
       </c>
       <c r="E886" t="n">
-        <v>0</v>
+        <v>21.3132</v>
       </c>
       <c r="F886" t="n">
-        <v>0</v>
+        <v>17.8828</v>
       </c>
       <c r="G886" t="n">
-        <v>0</v>
+        <v>1.412</v>
       </c>
     </row>
     <row r="887">
@@ -20831,22 +20831,22 @@
         <v>44898</v>
       </c>
       <c r="B887" t="n">
-        <v>0</v>
+        <v>43.93640000000001</v>
       </c>
       <c r="C887" t="n">
-        <v>0</v>
+        <v>85.77879999999999</v>
       </c>
       <c r="D887" t="n">
-        <v>0</v>
+        <v>16.3652</v>
       </c>
       <c r="E887" t="n">
-        <v>0</v>
+        <v>25.6566</v>
       </c>
       <c r="F887" t="n">
-        <v>0</v>
+        <v>21.3024</v>
       </c>
       <c r="G887" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="888">
@@ -20892,7 +20892,7 @@
         <v>30.282</v>
       </c>
       <c r="G889" t="n">
-        <v>0</v>
+        <v>4.572500000000001</v>
       </c>
     </row>
     <row r="890">
@@ -21958,22 +21958,22 @@
         <v>44947</v>
       </c>
       <c r="B936" t="n">
-        <v>0</v>
+        <v>347.7315</v>
       </c>
       <c r="C936" t="n">
-        <v>0</v>
+        <v>406.7245</v>
       </c>
       <c r="D936" t="n">
-        <v>0</v>
+        <v>145.577</v>
       </c>
       <c r="E936" t="n">
-        <v>0</v>
+        <v>273.764</v>
       </c>
       <c r="F936" t="n">
-        <v>0</v>
+        <v>86.13800000000002</v>
       </c>
       <c r="G936" t="n">
-        <v>0</v>
+        <v>46.7995</v>
       </c>
     </row>
     <row r="937">
